--- a/Data/Downloads/Fiche Perso Ogma.xlsx
+++ b/Data/Downloads/Fiche Perso Ogma.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>Nom</t>
   </si>
@@ -73,13 +73,13 @@
     <t>Robustesse</t>
   </si>
   <si>
-    <t>Protection Magique</t>
+    <t>Sérénité</t>
   </si>
   <si>
     <t>Argent</t>
   </si>
   <si>
-    <t>Bonus à l'intiative</t>
+    <t>Initiative</t>
   </si>
   <si>
     <t>Taille</t>
@@ -193,10 +193,7 @@
     <t>Bras Droit</t>
   </si>
   <si>
-    <t>Jambe Droite</t>
-  </si>
-  <si>
-    <t>Jambe Gauche</t>
+    <t>Jambes</t>
   </si>
   <si>
     <t>Autre</t>
@@ -239,7 +236,7 @@
 de port</t>
   </si>
   <si>
-    <t>Capacité monture</t>
+    <t>Niveau de charge</t>
   </si>
   <si>
     <t>Journal</t>
@@ -825,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -939,7 +936,7 @@
     <xf borderId="13" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="10" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="8" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1034,9 +1031,6 @@
     <xf borderId="13" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="36" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="14" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,6 +1044,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="36" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="28" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1096,13 +1093,13 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="30" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="30" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="30" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1120,6 +1117,9 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="40" fillId="4" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="39" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="13">
-        <f>S11</f>
+        <f>P11+Q11+R11+S11</f>
         <v>0</v>
       </c>
       <c r="O2" s="12"/>
@@ -1576,13 +1576,19 @@
         <v>19</v>
       </c>
       <c r="Q4" s="17"/>
-      <c r="R4" s="45"/>
+      <c r="R4" s="45">
+        <f>S11</f>
+        <v>0</v>
+      </c>
       <c r="S4" s="17"/>
       <c r="T4" s="46" t="s">
         <v>20</v>
       </c>
       <c r="U4" s="17"/>
-      <c r="V4" s="47"/>
+      <c r="V4" s="47">
+        <f>U11</f>
+        <v>0</v>
+      </c>
       <c r="W4" s="19"/>
       <c r="Y4" s="35" t="s">
         <v>21</v>
@@ -1628,7 +1634,7 @@
       </c>
       <c r="M5" s="17"/>
       <c r="N5" s="48">
-        <f>P11+R11+T11+V11*2</f>
+        <f>Q11+R11+T11+V11*2</f>
         <v>0</v>
       </c>
       <c r="O5" s="17"/>
@@ -1689,7 +1695,20 @@
         <v>27</v>
       </c>
       <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
+      <c r="N6" s="54">
+        <f>SUM(
+IF(ISBLANK(L15),0,SWITCH(L15,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L16),0,SWITCH(L16,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L17),0,SWITCH(L17,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L18),0,SWITCH(L18,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L19),0,SWITCH(L19,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L20),0,SWITCH(L20,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L21),0,SWITCH(L21,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L22),0,SWITCH(L22,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+IF(ISBLANK(L23),0,SWITCH(L23,"V",0,"L",-1,"M",-3,"Ld",-5,"S-Ld",-10)),
+)</f>
+        <v>0</v>
+      </c>
       <c r="O6" s="53"/>
       <c r="P6" s="55" t="s">
         <v>28</v>
@@ -2309,7 +2328,7 @@
       <c r="J16" s="84"/>
       <c r="K16" s="85"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="86"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="4"/>
       <c r="O16" s="37"/>
       <c r="P16" s="26"/>
@@ -2322,29 +2341,29 @@
       <c r="W16" s="26"/>
       <c r="X16" s="26"/>
       <c r="Y16" s="17"/>
-      <c r="Z16" s="87"/>
+      <c r="Z16" s="86"/>
       <c r="AA16" s="83"/>
       <c r="AB16" s="70"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="37"/>
       <c r="AE16" s="26"/>
       <c r="AF16" s="17"/>
-      <c r="AG16" s="88"/>
+      <c r="AG16" s="87"/>
       <c r="AH16" s="12"/>
-      <c r="AI16" s="89"/>
+      <c r="AI16" s="88"/>
       <c r="AJ16" s="23"/>
       <c r="AK16" s="12"/>
-      <c r="AL16" s="90"/>
+      <c r="AL16" s="89"/>
       <c r="AM16" s="23"/>
       <c r="AN16" s="23"/>
       <c r="AO16" s="23"/>
       <c r="AP16" s="23"/>
       <c r="AQ16" s="22"/>
       <c r="AR16" s="4"/>
-      <c r="AS16" s="91"/>
+      <c r="AS16" s="90"/>
       <c r="AT16" s="23"/>
       <c r="AU16" s="12"/>
-      <c r="AV16" s="89"/>
+      <c r="AV16" s="88"/>
       <c r="AW16" s="23"/>
       <c r="AX16" s="23"/>
       <c r="AY16" s="23"/>
@@ -2369,7 +2388,7 @@
       <c r="J17" s="84"/>
       <c r="K17" s="85"/>
       <c r="L17" s="36"/>
-      <c r="M17" s="86"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="4"/>
       <c r="O17" s="37"/>
       <c r="P17" s="26"/>
@@ -2382,29 +2401,29 @@
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="17"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="86"/>
+      <c r="Z17" s="86"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="91"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="37"/>
       <c r="AE17" s="26"/>
       <c r="AF17" s="17"/>
-      <c r="AG17" s="88"/>
+      <c r="AG17" s="87"/>
       <c r="AH17" s="12"/>
-      <c r="AI17" s="89"/>
+      <c r="AI17" s="88"/>
       <c r="AJ17" s="23"/>
       <c r="AK17" s="12"/>
-      <c r="AL17" s="90"/>
+      <c r="AL17" s="89"/>
       <c r="AM17" s="23"/>
       <c r="AN17" s="23"/>
       <c r="AO17" s="23"/>
       <c r="AP17" s="23"/>
       <c r="AQ17" s="22"/>
       <c r="AR17" s="4"/>
-      <c r="AS17" s="91"/>
+      <c r="AS17" s="90"/>
       <c r="AT17" s="23"/>
       <c r="AU17" s="12"/>
-      <c r="AV17" s="89"/>
+      <c r="AV17" s="88"/>
       <c r="AW17" s="23"/>
       <c r="AX17" s="23"/>
       <c r="AY17" s="23"/>
@@ -2429,7 +2448,7 @@
       <c r="J18" s="84"/>
       <c r="K18" s="85"/>
       <c r="L18" s="36"/>
-      <c r="M18" s="86"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="4"/>
       <c r="O18" s="37"/>
       <c r="P18" s="26"/>
@@ -2442,29 +2461,29 @@
       <c r="W18" s="26"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="17"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="91"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="37"/>
       <c r="AE18" s="26"/>
       <c r="AF18" s="17"/>
-      <c r="AG18" s="88"/>
+      <c r="AG18" s="87"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="89"/>
+      <c r="AI18" s="88"/>
       <c r="AJ18" s="23"/>
       <c r="AK18" s="12"/>
-      <c r="AL18" s="90"/>
+      <c r="AL18" s="89"/>
       <c r="AM18" s="23"/>
       <c r="AN18" s="23"/>
       <c r="AO18" s="23"/>
       <c r="AP18" s="23"/>
       <c r="AQ18" s="22"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="91"/>
+      <c r="AS18" s="90"/>
       <c r="AT18" s="23"/>
       <c r="AU18" s="12"/>
-      <c r="AV18" s="89"/>
+      <c r="AV18" s="88"/>
       <c r="AW18" s="23"/>
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
@@ -2489,7 +2508,7 @@
       <c r="J19" s="84"/>
       <c r="K19" s="85"/>
       <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="4"/>
       <c r="O19" s="37"/>
       <c r="P19" s="26"/>
@@ -2502,29 +2521,29 @@
       <c r="W19" s="26"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="91"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="37"/>
       <c r="AE19" s="26"/>
       <c r="AF19" s="17"/>
-      <c r="AG19" s="88"/>
+      <c r="AG19" s="87"/>
       <c r="AH19" s="12"/>
-      <c r="AI19" s="89"/>
+      <c r="AI19" s="88"/>
       <c r="AJ19" s="23"/>
       <c r="AK19" s="12"/>
-      <c r="AL19" s="90"/>
+      <c r="AL19" s="89"/>
       <c r="AM19" s="23"/>
       <c r="AN19" s="23"/>
       <c r="AO19" s="23"/>
       <c r="AP19" s="23"/>
       <c r="AQ19" s="22"/>
       <c r="AR19" s="4"/>
-      <c r="AS19" s="91"/>
+      <c r="AS19" s="90"/>
       <c r="AT19" s="23"/>
       <c r="AU19" s="12"/>
-      <c r="AV19" s="89"/>
+      <c r="AV19" s="88"/>
       <c r="AW19" s="23"/>
       <c r="AX19" s="23"/>
       <c r="AY19" s="23"/>
@@ -2549,7 +2568,7 @@
       <c r="J20" s="84"/>
       <c r="K20" s="85"/>
       <c r="L20" s="85"/>
-      <c r="M20" s="86"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="4"/>
       <c r="O20" s="37"/>
       <c r="P20" s="26"/>
@@ -2562,29 +2581,29 @@
       <c r="W20" s="26"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="17"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="91"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="37"/>
       <c r="AE20" s="26"/>
       <c r="AF20" s="17"/>
-      <c r="AG20" s="88"/>
+      <c r="AG20" s="87"/>
       <c r="AH20" s="12"/>
-      <c r="AI20" s="89"/>
+      <c r="AI20" s="88"/>
       <c r="AJ20" s="23"/>
       <c r="AK20" s="12"/>
-      <c r="AL20" s="90"/>
+      <c r="AL20" s="89"/>
       <c r="AM20" s="23"/>
       <c r="AN20" s="23"/>
       <c r="AO20" s="23"/>
       <c r="AP20" s="23"/>
       <c r="AQ20" s="22"/>
       <c r="AR20" s="4"/>
-      <c r="AS20" s="91"/>
+      <c r="AS20" s="90"/>
       <c r="AT20" s="23"/>
       <c r="AU20" s="12"/>
-      <c r="AV20" s="89"/>
+      <c r="AV20" s="88"/>
       <c r="AW20" s="23"/>
       <c r="AX20" s="23"/>
       <c r="AY20" s="23"/>
@@ -2596,7 +2615,7 @@
     </row>
     <row r="21" ht="37.5" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="36"/>
@@ -2609,7 +2628,7 @@
       <c r="J21" s="84"/>
       <c r="K21" s="85"/>
       <c r="L21" s="85"/>
-      <c r="M21" s="86"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="4"/>
       <c r="O21" s="37"/>
       <c r="P21" s="26"/>
@@ -2622,29 +2641,29 @@
       <c r="W21" s="26"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="17"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="91"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="37"/>
       <c r="AE21" s="26"/>
       <c r="AF21" s="17"/>
-      <c r="AG21" s="88"/>
+      <c r="AG21" s="87"/>
       <c r="AH21" s="12"/>
-      <c r="AI21" s="89"/>
+      <c r="AI21" s="88"/>
       <c r="AJ21" s="23"/>
       <c r="AK21" s="12"/>
-      <c r="AL21" s="90"/>
+      <c r="AL21" s="89"/>
       <c r="AM21" s="23"/>
       <c r="AN21" s="23"/>
       <c r="AO21" s="23"/>
       <c r="AP21" s="23"/>
       <c r="AQ21" s="22"/>
       <c r="AR21" s="4"/>
-      <c r="AS21" s="91"/>
+      <c r="AS21" s="90"/>
       <c r="AT21" s="23"/>
       <c r="AU21" s="12"/>
-      <c r="AV21" s="89"/>
+      <c r="AV21" s="88"/>
       <c r="AW21" s="23"/>
       <c r="AX21" s="23"/>
       <c r="AY21" s="23"/>
@@ -2656,7 +2675,7 @@
     </row>
     <row r="22" ht="37.5" customHeight="1">
       <c r="A22" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="36"/>
@@ -2669,7 +2688,7 @@
       <c r="J22" s="84"/>
       <c r="K22" s="85"/>
       <c r="L22" s="85"/>
-      <c r="M22" s="86"/>
+      <c r="M22" s="91"/>
       <c r="N22" s="4"/>
       <c r="O22" s="37"/>
       <c r="P22" s="26"/>
@@ -2682,29 +2701,29 @@
       <c r="W22" s="26"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="91"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="37"/>
       <c r="AE22" s="26"/>
       <c r="AF22" s="17"/>
-      <c r="AG22" s="88"/>
+      <c r="AG22" s="87"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="89"/>
+      <c r="AI22" s="88"/>
       <c r="AJ22" s="23"/>
       <c r="AK22" s="12"/>
-      <c r="AL22" s="90"/>
+      <c r="AL22" s="89"/>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
       <c r="AO22" s="23"/>
       <c r="AP22" s="23"/>
       <c r="AQ22" s="22"/>
       <c r="AR22" s="4"/>
-      <c r="AS22" s="91"/>
+      <c r="AS22" s="90"/>
       <c r="AT22" s="23"/>
       <c r="AU22" s="12"/>
-      <c r="AV22" s="89"/>
+      <c r="AV22" s="88"/>
       <c r="AW22" s="23"/>
       <c r="AX22" s="23"/>
       <c r="AY22" s="23"/>
@@ -2716,7 +2735,7 @@
     </row>
     <row r="23" ht="37.5" customHeight="1">
       <c r="A23" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="61"/>
       <c r="C23" s="62"/>
@@ -2834,17 +2853,17 @@
     </row>
     <row r="25" ht="37.5" customHeight="1">
       <c r="A25" s="101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="102"/>
       <c r="C25" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="F25" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -2855,7 +2874,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="7"/>
       <c r="P25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -2866,13 +2885,13 @@
       <c r="W25" s="6"/>
       <c r="X25" s="7"/>
       <c r="Z25" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA25" s="6"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="79"/>
       <c r="AD25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
@@ -2907,7 +2926,7 @@
       <c r="C26" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="D26" s="86" t="b">
+      <c r="D26" s="91" t="b">
         <v>0</v>
       </c>
       <c r="F26" s="105"/>
@@ -2915,29 +2934,39 @@
       <c r="P26" s="105"/>
       <c r="X26" s="29"/>
       <c r="Z26" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA26" s="12"/>
       <c r="AB26" s="106">
-        <f>SUM(M15:M23)/2+SUM(AB15:AB23)</f>
+        <f>SUM(
+IF(OR(ISBLANK(M15),M15&lt;=0),0,(M15-1)),
+IF(OR(ISBLANK(M16),M16&lt;=0),0,(M16-1)),
+IF(OR(ISBLANK(M17),M17&lt;=0),0,(M17-1)),
+IF(OR(ISBLANK(M18),M18&lt;=0),0,(M18-1)),
+IF(OR(ISBLANK(M19),M19&lt;=0),0,(M19-1)),
+IF(OR(ISBLANK(M20),M20&lt;=0),0,(M20-1)),
+IF(OR(ISBLANK(M21),M21&lt;=0),0,(M21-1)),
+IF(OR(ISBLANK(M22),M22&lt;=0),0,(M22-1)),
+IF(OR(ISBLANK(M23),M23&lt;=0),0,(M23-1))
+)+SUM(AB15:AB23)</f>
         <v>0</v>
       </c>
       <c r="AC26" s="79"/>
-      <c r="AD26" s="91"/>
+      <c r="AD26" s="90"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="107"/>
       <c r="AG26" s="108"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="107"/>
+      <c r="AI26" s="109"/>
       <c r="AJ26" s="108"/>
       <c r="AK26" s="12"/>
-      <c r="AL26" s="109"/>
+      <c r="AL26" s="107"/>
       <c r="AM26" s="108"/>
       <c r="AN26" s="12"/>
-      <c r="AO26" s="107"/>
+      <c r="AO26" s="109"/>
       <c r="AP26" s="108"/>
       <c r="AQ26" s="12"/>
-      <c r="AR26" s="107"/>
+      <c r="AR26" s="109"/>
       <c r="AS26" s="108"/>
       <c r="AT26" s="12"/>
       <c r="AU26" s="110"/>
@@ -2946,7 +2975,7 @@
       <c r="AX26" s="110"/>
       <c r="AY26" s="111"/>
       <c r="AZ26" s="12"/>
-      <c r="BA26" s="107"/>
+      <c r="BA26" s="109"/>
       <c r="BB26" s="108"/>
       <c r="BC26" s="12"/>
       <c r="BD26" s="112"/>
@@ -2957,7 +2986,7 @@
       <c r="C27" s="84" t="b">
         <v>0</v>
       </c>
-      <c r="D27" s="86" t="b">
+      <c r="D27" s="91" t="b">
         <v>0</v>
       </c>
       <c r="F27" s="28"/>
@@ -2965,11 +2994,11 @@
       <c r="P27" s="28"/>
       <c r="X27" s="29"/>
       <c r="Z27" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA27" s="17"/>
       <c r="AB27" s="113">
-        <f>SUM(AF26:AF29)+SUM(AI26:AI29)+SUM(AL26:AL29)+SUM(AO26:AO29)+SUM(AR26:AR29)+SUM(AU26:AU29)+SUM(AX26:AX29)+SUM(BA26:BA29)+SUM(BD26:BD29)</f>
+        <f>SUM(AF26:AF30)+SUM(AI26:AI30)+SUM(AL26:AL30)+SUM(AO26:AO30)+SUM(AR26:AR30)+SUM(AU26:AU30)+SUM(AX26:AX30)+SUM(BA26:BA30)+SUM(BD26:BD30)</f>
         <v>0</v>
       </c>
       <c r="AC27" s="79"/>
@@ -2999,7 +3028,7 @@
       <c r="BA27" s="84"/>
       <c r="BB27" s="85"/>
       <c r="BC27" s="17"/>
-      <c r="BD27" s="86"/>
+      <c r="BD27" s="91"/>
     </row>
     <row r="28" ht="37.5" customHeight="1">
       <c r="A28" s="40"/>
@@ -3007,7 +3036,7 @@
       <c r="C28" s="84" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="86" t="b">
+      <c r="D28" s="91" t="b">
         <v>0</v>
       </c>
       <c r="F28" s="28"/>
@@ -3015,7 +3044,7 @@
       <c r="P28" s="28"/>
       <c r="X28" s="29"/>
       <c r="Z28" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA28" s="17"/>
       <c r="AB28" s="113">
@@ -3049,7 +3078,7 @@
       <c r="BA28" s="84"/>
       <c r="BB28" s="85"/>
       <c r="BC28" s="17"/>
-      <c r="BD28" s="86"/>
+      <c r="BD28" s="91"/>
     </row>
     <row r="29" ht="37.5" customHeight="1">
       <c r="A29" s="37"/>
@@ -3057,7 +3086,7 @@
       <c r="C29" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="86" t="b">
+      <c r="D29" s="91" t="b">
         <v>0</v>
       </c>
       <c r="F29" s="28"/>
@@ -3065,11 +3094,11 @@
       <c r="P29" s="28"/>
       <c r="X29" s="29"/>
       <c r="Z29" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA29" s="17"/>
       <c r="AB29" s="113">
-        <f>P11*4+S11*2</f>
+        <f>SWITCH(R5,"Infime",P11+S11,"Minuscule",2*P11+S11,"Très Petite",2*P11+2*S11,"Petite",3*P11+2*S11,"Moyenne",4*P11+2*S11,"Grande",5*P11+2*S11,"Très Grande",6*P11+2*S11,"Gigantesque",7*P11+2*S11,"Colossale",8*P11+2*S11)</f>
         <v>0</v>
       </c>
       <c r="AC29" s="79"/>
@@ -3099,7 +3128,7 @@
       <c r="BA29" s="84"/>
       <c r="BB29" s="85"/>
       <c r="BC29" s="17"/>
-      <c r="BD29" s="86"/>
+      <c r="BD29" s="91"/>
     </row>
     <row r="30" ht="37.5" customHeight="1">
       <c r="A30" s="100"/>
@@ -3129,10 +3158,16 @@
       <c r="W30" s="72"/>
       <c r="X30" s="59"/>
       <c r="Z30" s="60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA30" s="61"/>
-      <c r="AB30" s="75"/>
+      <c r="AB30" s="116" t="str">
+        <f>IF(AB28&lt;=AB29,"Légère",
+IF(AB28&gt;AB29,"Moyenne",
+IF(AB28&gt;AB29+P11,"Lourde",
+"Écrasante")))</f>
+        <v>Légère</v>
+      </c>
       <c r="AC30" s="79"/>
       <c r="AD30" s="100"/>
       <c r="AE30" s="61"/>
@@ -3151,11 +3186,11 @@
       <c r="AR30" s="93"/>
       <c r="AS30" s="94"/>
       <c r="AT30" s="61"/>
-      <c r="AU30" s="116"/>
-      <c r="AV30" s="117"/>
+      <c r="AU30" s="117"/>
+      <c r="AV30" s="118"/>
       <c r="AW30" s="61"/>
-      <c r="AX30" s="116"/>
-      <c r="AY30" s="117"/>
+      <c r="AX30" s="117"/>
+      <c r="AY30" s="118"/>
       <c r="AZ30" s="61"/>
       <c r="BA30" s="93"/>
       <c r="BB30" s="94"/>
@@ -3214,7 +3249,7 @@
     </row>
     <row r="32" ht="37.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3230,7 +3265,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="79"/>
       <c r="O32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
@@ -3247,7 +3282,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="79"/>
       <c r="AD32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE32" s="6"/>
       <c r="AF32" s="6"/>
@@ -3258,7 +3293,7 @@
       <c r="AK32" s="7"/>
       <c r="AL32" s="79"/>
       <c r="AM32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN32" s="6"/>
       <c r="AO32" s="6"/>
@@ -3269,7 +3304,7 @@
       <c r="AT32" s="7"/>
       <c r="AU32" s="79"/>
       <c r="AV32" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AW32" s="6"/>
       <c r="AX32" s="6"/>
@@ -58990,6 +59025,9 @@
     <dataValidation type="list" allowBlank="1" sqref="R5">
       <formula1>"Infime,Minuscule,Très Petite,Petite,Moyenne,Grande,Très Grande,Gigantesque,Colossale"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="L15:L23">
+      <formula1>"V,L,M,Ld,S-Ld"</formula1>
+    </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
